--- a/data/pca/factorExposure/factorExposure_2014-09-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.007235219150815608</v>
+        <v>0.01910911844820148</v>
       </c>
       <c r="C2">
-        <v>0.1161794284545291</v>
+        <v>-0.07203998650543005</v>
       </c>
       <c r="D2">
-        <v>0.0002833576126269847</v>
+        <v>0.03130017692323995</v>
       </c>
       <c r="E2">
-        <v>-0.2383319585543877</v>
+        <v>-0.1045693113803399</v>
       </c>
       <c r="F2">
-        <v>0.03257435756002861</v>
+        <v>-0.1202605214590955</v>
       </c>
       <c r="G2">
-        <v>0.08228347612884719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.009562418233560539</v>
+      </c>
+      <c r="H2">
+        <v>-0.05112552731692065</v>
+      </c>
+      <c r="I2">
+        <v>-0.02819890230386978</v>
+      </c>
+      <c r="J2">
+        <v>0.02077313437534425</v>
+      </c>
+      <c r="K2">
+        <v>0.2072486154035012</v>
+      </c>
+      <c r="L2">
+        <v>0.1921068404366482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.01681375153061501</v>
+        <v>0.01817087699201838</v>
       </c>
       <c r="C4">
-        <v>0.1633757369777738</v>
+        <v>-0.1436149372211385</v>
       </c>
       <c r="D4">
-        <v>0.002580675072295899</v>
+        <v>0.05984519973494108</v>
       </c>
       <c r="E4">
-        <v>-0.06647431615000593</v>
+        <v>-8.81545597010237e-05</v>
       </c>
       <c r="F4">
-        <v>-0.0777704333612074</v>
+        <v>-0.07182404789317925</v>
       </c>
       <c r="G4">
-        <v>0.02578416785747129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01768308795042358</v>
+      </c>
+      <c r="H4">
+        <v>-0.08962578169656223</v>
+      </c>
+      <c r="I4">
+        <v>-0.1026572483624862</v>
+      </c>
+      <c r="J4">
+        <v>0.06495789621908069</v>
+      </c>
+      <c r="K4">
+        <v>0.1601140246704774</v>
+      </c>
+      <c r="L4">
+        <v>-0.008569810791682526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.02544861390373715</v>
+        <v>0.03811772369784838</v>
       </c>
       <c r="C6">
-        <v>0.07671387276070779</v>
+        <v>-0.08592184300381722</v>
       </c>
       <c r="D6">
-        <v>0.05045234919031866</v>
+        <v>0.03070805952034233</v>
       </c>
       <c r="E6">
-        <v>-0.06491376864112337</v>
+        <v>-0.04654976766303877</v>
       </c>
       <c r="F6">
-        <v>-0.01787668194007679</v>
+        <v>-0.0116773354029563</v>
       </c>
       <c r="G6">
-        <v>-0.00416091685079348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.03918266245261917</v>
+      </c>
+      <c r="H6">
+        <v>-0.03255543091977299</v>
+      </c>
+      <c r="I6">
+        <v>0.004435400908351327</v>
+      </c>
+      <c r="J6">
+        <v>-0.08149626307707916</v>
+      </c>
+      <c r="K6">
+        <v>0.08063252088966175</v>
+      </c>
+      <c r="L6">
+        <v>-0.0227567610930344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.002489212417243467</v>
+        <v>0.01844631588786333</v>
       </c>
       <c r="C7">
-        <v>0.06400264808480496</v>
+        <v>-0.07333853657894746</v>
       </c>
       <c r="D7">
-        <v>0.02994557308154072</v>
+        <v>0.02752580501212993</v>
       </c>
       <c r="E7">
-        <v>-0.02523441062733249</v>
+        <v>0.01600840608943339</v>
       </c>
       <c r="F7">
-        <v>-0.0492896105496896</v>
+        <v>-0.004906441194817399</v>
       </c>
       <c r="G7">
-        <v>-0.00301227559001481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03609108560160795</v>
+      </c>
+      <c r="H7">
+        <v>-0.09767924524298817</v>
+      </c>
+      <c r="I7">
+        <v>-0.02748584959839279</v>
+      </c>
+      <c r="J7">
+        <v>0.001132806020930836</v>
+      </c>
+      <c r="K7">
+        <v>0.04302430146878746</v>
+      </c>
+      <c r="L7">
+        <v>0.02872432775434501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.008820581800221362</v>
+        <v>2.379934168229333e-06</v>
       </c>
       <c r="C8">
-        <v>0.07809552361045408</v>
+        <v>-0.06329523165161458</v>
       </c>
       <c r="D8">
-        <v>0.02413219838515781</v>
+        <v>0.04149309125843665</v>
       </c>
       <c r="E8">
-        <v>-0.08153564464260327</v>
+        <v>-0.02608514338065206</v>
       </c>
       <c r="F8">
-        <v>-0.03594359356089856</v>
+        <v>-0.0571846696687341</v>
       </c>
       <c r="G8">
-        <v>0.030030589961406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01356135724849495</v>
+      </c>
+      <c r="H8">
+        <v>-0.05737301906896884</v>
+      </c>
+      <c r="I8">
+        <v>-0.01813305534571829</v>
+      </c>
+      <c r="J8">
+        <v>0.002705998902653897</v>
+      </c>
+      <c r="K8">
+        <v>0.003447653309038662</v>
+      </c>
+      <c r="L8">
+        <v>0.001526877632714531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.008725741311881636</v>
+        <v>0.01385367438720041</v>
       </c>
       <c r="C9">
-        <v>0.1229882649716763</v>
+        <v>-0.10327656966782</v>
       </c>
       <c r="D9">
-        <v>0.02827989875435343</v>
+        <v>0.04232173222336644</v>
       </c>
       <c r="E9">
-        <v>-0.03040708055691261</v>
+        <v>-0.005721781419776343</v>
       </c>
       <c r="F9">
-        <v>-0.03306254649090615</v>
+        <v>-0.03183288210793186</v>
       </c>
       <c r="G9">
-        <v>-0.02179079362109262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.00233886504962596</v>
+      </c>
+      <c r="H9">
+        <v>-0.08981147523510691</v>
+      </c>
+      <c r="I9">
+        <v>-0.07011027748457344</v>
+      </c>
+      <c r="J9">
+        <v>0.01659270590333702</v>
+      </c>
+      <c r="K9">
+        <v>0.06822414954113271</v>
+      </c>
+      <c r="L9">
+        <v>-0.02234679103700562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.2763591404909676</v>
+        <v>0.2481520248039454</v>
       </c>
       <c r="C10">
-        <v>-0.08526028726613728</v>
+        <v>0.09125938373238136</v>
       </c>
       <c r="D10">
-        <v>-0.02095840952975126</v>
+        <v>-0.004817821782352555</v>
       </c>
       <c r="E10">
-        <v>0.03614373293705549</v>
+        <v>-0.01389336367391022</v>
       </c>
       <c r="F10">
-        <v>0.002991211342757189</v>
+        <v>0.01260112247172939</v>
       </c>
       <c r="G10">
-        <v>-0.0245961238854103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01488206961997082</v>
+      </c>
+      <c r="H10">
+        <v>-0.04205502101790559</v>
+      </c>
+      <c r="I10">
+        <v>-0.001968942235093126</v>
+      </c>
+      <c r="J10">
+        <v>0.1755259163513206</v>
+      </c>
+      <c r="K10">
+        <v>-0.1070188257566449</v>
+      </c>
+      <c r="L10">
+        <v>-0.03261316098108373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.00644599197675475</v>
+        <v>0.01662560752206638</v>
       </c>
       <c r="C11">
-        <v>0.0692341729109812</v>
+        <v>-0.08324021905041359</v>
       </c>
       <c r="D11">
-        <v>0.0241706731773709</v>
+        <v>0.03770918066002053</v>
       </c>
       <c r="E11">
-        <v>0.01802595173644084</v>
+        <v>0.008662535374035879</v>
       </c>
       <c r="F11">
-        <v>-0.01994735197596999</v>
+        <v>0.01289583524539099</v>
       </c>
       <c r="G11">
-        <v>-0.03520393841653378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006837787097219233</v>
+      </c>
+      <c r="H11">
+        <v>-0.03046481801530465</v>
+      </c>
+      <c r="I11">
+        <v>-0.01825522229274619</v>
+      </c>
+      <c r="J11">
+        <v>-0.02084495282713347</v>
+      </c>
+      <c r="K11">
+        <v>-0.02263856700124184</v>
+      </c>
+      <c r="L11">
+        <v>-0.0575222788597996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.00548823324105174</v>
+        <v>0.01629557926135396</v>
       </c>
       <c r="C12">
-        <v>0.04802015342439635</v>
+        <v>-0.05548657581275433</v>
       </c>
       <c r="D12">
-        <v>0.02938374936478188</v>
+        <v>0.02235438531703931</v>
       </c>
       <c r="E12">
-        <v>0.007848209308126712</v>
+        <v>-0.01250825902612962</v>
       </c>
       <c r="F12">
-        <v>0.003008605510707591</v>
+        <v>0.01981939585000027</v>
       </c>
       <c r="G12">
-        <v>-0.05590427579163022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02391440900099714</v>
+      </c>
+      <c r="H12">
+        <v>-0.02794050650980641</v>
+      </c>
+      <c r="I12">
+        <v>-0.01486585467733735</v>
+      </c>
+      <c r="J12">
+        <v>-0.01435854288594802</v>
+      </c>
+      <c r="K12">
+        <v>-0.009101216876400127</v>
+      </c>
+      <c r="L12">
+        <v>-0.05161690372690578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.01586880874166577</v>
+        <v>0.00716861160105715</v>
       </c>
       <c r="C13">
-        <v>0.1292195257863581</v>
+        <v>-0.1222478833756689</v>
       </c>
       <c r="D13">
-        <v>0.04755185144444104</v>
+        <v>0.04049839391309164</v>
       </c>
       <c r="E13">
-        <v>-0.05884719705040899</v>
+        <v>-0.1558616343112937</v>
       </c>
       <c r="F13">
-        <v>0.006169455302343869</v>
+        <v>-0.05248521326765338</v>
       </c>
       <c r="G13">
-        <v>-0.1703234660012492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1054841126860543</v>
+      </c>
+      <c r="H13">
+        <v>-0.1385740249468434</v>
+      </c>
+      <c r="I13">
+        <v>0.1706365556556662</v>
+      </c>
+      <c r="J13">
+        <v>0.1474444140018334</v>
+      </c>
+      <c r="K13">
+        <v>-0.1952106226382198</v>
+      </c>
+      <c r="L13">
+        <v>0.1176752120969683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.008650795056376335</v>
+        <v>0.01949635504081755</v>
       </c>
       <c r="C14">
-        <v>0.06941380773992986</v>
+        <v>-0.07516162743867481</v>
       </c>
       <c r="D14">
-        <v>0.02582721233647239</v>
+        <v>0.0491940747270052</v>
       </c>
       <c r="E14">
-        <v>-0.03944031595079275</v>
+        <v>-0.04561650905035434</v>
       </c>
       <c r="F14">
-        <v>0.00554110614188152</v>
+        <v>0.01797778115390309</v>
       </c>
       <c r="G14">
-        <v>-0.05118142583459286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.06614032589258541</v>
+      </c>
+      <c r="H14">
+        <v>-0.2122509488108199</v>
+      </c>
+      <c r="I14">
+        <v>0.005389279437664794</v>
+      </c>
+      <c r="J14">
+        <v>-0.04525741977183885</v>
+      </c>
+      <c r="K14">
+        <v>-0.1058560544604572</v>
+      </c>
+      <c r="L14">
+        <v>0.1426477395661244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.007851466076606176</v>
+        <v>0.003554782747724604</v>
       </c>
       <c r="C15">
-        <v>0.1037614922570156</v>
+        <v>-0.08391483691890769</v>
       </c>
       <c r="D15">
-        <v>0.03562556567961678</v>
+        <v>0.03528007862720862</v>
       </c>
       <c r="E15">
-        <v>-0.05151555098707133</v>
+        <v>-0.005026550458892275</v>
       </c>
       <c r="F15">
-        <v>-0.0346246719715384</v>
+        <v>-0.02346553060608175</v>
       </c>
       <c r="G15">
-        <v>-0.03067726047281228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02699073183035253</v>
+      </c>
+      <c r="H15">
+        <v>-0.09536955528957859</v>
+      </c>
+      <c r="I15">
+        <v>-0.02516572335844346</v>
+      </c>
+      <c r="J15">
+        <v>-0.01570220022359834</v>
+      </c>
+      <c r="K15">
+        <v>-0.06136355978846408</v>
+      </c>
+      <c r="L15">
+        <v>0.0227533094410283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.009664722059010139</v>
+        <v>0.01553654393116879</v>
       </c>
       <c r="C16">
-        <v>0.06053387495442085</v>
+        <v>-0.06264646505941047</v>
       </c>
       <c r="D16">
-        <v>0.01647253258026582</v>
+        <v>0.02627506490004783</v>
       </c>
       <c r="E16">
-        <v>0.01099077800050119</v>
+        <v>0.003533646301807126</v>
       </c>
       <c r="F16">
-        <v>9.702022536621093e-05</v>
+        <v>0.009389693765649781</v>
       </c>
       <c r="G16">
-        <v>-0.02832756798997061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.006738109000108198</v>
+      </c>
+      <c r="H16">
+        <v>-0.02325575158660112</v>
+      </c>
+      <c r="I16">
+        <v>-0.01685214529702348</v>
+      </c>
+      <c r="J16">
+        <v>-0.01590898535733372</v>
+      </c>
+      <c r="K16">
+        <v>-0.005231707703966683</v>
+      </c>
+      <c r="L16">
+        <v>-0.0406921344600994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.01309996932148011</v>
+        <v>0.01535174885030397</v>
       </c>
       <c r="C20">
-        <v>0.08976061006308336</v>
+        <v>-0.08687815519053334</v>
       </c>
       <c r="D20">
-        <v>0.01800246368478438</v>
+        <v>0.02476828589818712</v>
       </c>
       <c r="E20">
-        <v>0.01317339219669775</v>
+        <v>0.02509231346399168</v>
       </c>
       <c r="F20">
-        <v>-0.05515446088785948</v>
+        <v>0.0003778248284161311</v>
       </c>
       <c r="G20">
-        <v>-0.07860651136418231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03728781096834673</v>
+      </c>
+      <c r="H20">
+        <v>-0.07346887186688246</v>
+      </c>
+      <c r="I20">
+        <v>-0.0212846199118757</v>
+      </c>
+      <c r="J20">
+        <v>-0.01105582762431141</v>
+      </c>
+      <c r="K20">
+        <v>0.009885994775252866</v>
+      </c>
+      <c r="L20">
+        <v>-0.01551847974776173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.001521179457367453</v>
+        <v>0.01409482222452456</v>
       </c>
       <c r="C21">
-        <v>0.09566421462474362</v>
+        <v>-0.07269063399281504</v>
       </c>
       <c r="D21">
-        <v>-0.03202469984449362</v>
+        <v>0.01978719266804096</v>
       </c>
       <c r="E21">
-        <v>-0.05084750927039989</v>
+        <v>-0.09681419744272753</v>
       </c>
       <c r="F21">
-        <v>0.03812911537301229</v>
+        <v>0.02015752290678817</v>
       </c>
       <c r="G21">
-        <v>-0.03719069496103413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01641044910032875</v>
+      </c>
+      <c r="H21">
+        <v>-0.1447810223325157</v>
+      </c>
+      <c r="I21">
+        <v>0.04227964427622827</v>
+      </c>
+      <c r="J21">
+        <v>0.004251606628639227</v>
+      </c>
+      <c r="K21">
+        <v>-0.03988203195554314</v>
+      </c>
+      <c r="L21">
+        <v>-0.01793206004340596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.03841242956206879</v>
+        <v>0.008293017072740307</v>
       </c>
       <c r="C22">
-        <v>0.2161720205294926</v>
+        <v>-0.1805201121092506</v>
       </c>
       <c r="D22">
-        <v>-0.08695013084513625</v>
+        <v>0.01364364661656044</v>
       </c>
       <c r="E22">
-        <v>-0.2618883162174678</v>
+        <v>-0.09346911796076537</v>
       </c>
       <c r="F22">
-        <v>-0.1968768566084521</v>
+        <v>-0.5226290439159383</v>
       </c>
       <c r="G22">
-        <v>0.168253343662277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.01244673609860801</v>
+      </c>
+      <c r="H22">
+        <v>0.3027946581363186</v>
+      </c>
+      <c r="I22">
+        <v>0.05776547324716259</v>
+      </c>
+      <c r="J22">
+        <v>-0.006575246247535591</v>
+      </c>
+      <c r="K22">
+        <v>-0.2074434570298208</v>
+      </c>
+      <c r="L22">
+        <v>-0.0471843802815077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.03788311617176122</v>
+        <v>0.01333632572860814</v>
       </c>
       <c r="C23">
-        <v>0.2166590548325258</v>
+        <v>-0.1842841636431742</v>
       </c>
       <c r="D23">
-        <v>-0.08669434716370159</v>
+        <v>0.01288577059825954</v>
       </c>
       <c r="E23">
-        <v>-0.2581357696019654</v>
+        <v>-0.09122013444054046</v>
       </c>
       <c r="F23">
-        <v>-0.1944060709077369</v>
+        <v>-0.5043385559221176</v>
       </c>
       <c r="G23">
-        <v>0.1674859724536159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.01435134874367965</v>
+      </c>
+      <c r="H23">
+        <v>0.281156815842209</v>
+      </c>
+      <c r="I23">
+        <v>0.04895940793260122</v>
+      </c>
+      <c r="J23">
+        <v>-0.01013698510998369</v>
+      </c>
+      <c r="K23">
+        <v>-0.1949550543584107</v>
+      </c>
+      <c r="L23">
+        <v>-0.05164992485717345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.004549464615221669</v>
+        <v>0.0167095443575055</v>
       </c>
       <c r="C24">
-        <v>0.05760897944523862</v>
+        <v>-0.06646053315514559</v>
       </c>
       <c r="D24">
-        <v>0.03707577835645855</v>
+        <v>0.03872242377644353</v>
       </c>
       <c r="E24">
-        <v>0.009749106250041153</v>
+        <v>0.007178024492615764</v>
       </c>
       <c r="F24">
-        <v>-0.01564611865380236</v>
+        <v>0.007643683135929271</v>
       </c>
       <c r="G24">
-        <v>-0.04928492815791656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02228206017898543</v>
+      </c>
+      <c r="H24">
+        <v>-0.04057969482965823</v>
+      </c>
+      <c r="I24">
+        <v>-0.02154640029283441</v>
+      </c>
+      <c r="J24">
+        <v>-0.01436135683074085</v>
+      </c>
+      <c r="K24">
+        <v>-0.01259519599754386</v>
+      </c>
+      <c r="L24">
+        <v>-0.04399425780421765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.007044136000781668</v>
+        <v>0.0209714186888644</v>
       </c>
       <c r="C25">
-        <v>0.06600689732974828</v>
+        <v>-0.07028323648749354</v>
       </c>
       <c r="D25">
-        <v>0.01607613358628655</v>
+        <v>0.02886324061256839</v>
       </c>
       <c r="E25">
-        <v>0.01865989833864035</v>
+        <v>0.007864054638796124</v>
       </c>
       <c r="F25">
-        <v>-0.01462533362714188</v>
+        <v>0.006104749289667612</v>
       </c>
       <c r="G25">
-        <v>-0.04554304542606225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01623482582506086</v>
+      </c>
+      <c r="H25">
+        <v>-0.03580183113756823</v>
+      </c>
+      <c r="I25">
+        <v>-0.02098304330588015</v>
+      </c>
+      <c r="J25">
+        <v>-0.003216007721215382</v>
+      </c>
+      <c r="K25">
+        <v>-0.02624592148324737</v>
+      </c>
+      <c r="L25">
+        <v>-0.03509430053793326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.005880701257374459</v>
+        <v>0.0245402815650592</v>
       </c>
       <c r="C26">
-        <v>0.05963637372742799</v>
+        <v>-0.05829846146118318</v>
       </c>
       <c r="D26">
-        <v>0.05420908480390248</v>
+        <v>0.06372119446879138</v>
       </c>
       <c r="E26">
-        <v>-0.0127832797363213</v>
+        <v>0.005674299044134597</v>
       </c>
       <c r="F26">
-        <v>0.0095847456171404</v>
+        <v>0.01755005591231018</v>
       </c>
       <c r="G26">
-        <v>-0.02223133398440548</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.009152054667972444</v>
+      </c>
+      <c r="H26">
+        <v>-0.0977174991685911</v>
+      </c>
+      <c r="I26">
+        <v>-0.07372185053470039</v>
+      </c>
+      <c r="J26">
+        <v>-0.02622971112205925</v>
+      </c>
+      <c r="K26">
+        <v>0.09844375800305763</v>
+      </c>
+      <c r="L26">
+        <v>-0.07059843695364751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.3738598776044231</v>
+        <v>0.3165494089619212</v>
       </c>
       <c r="C28">
-        <v>-0.09931110548277639</v>
+        <v>0.1076320856984433</v>
       </c>
       <c r="D28">
-        <v>-0.02227050963399772</v>
+        <v>-0.03176443713206752</v>
       </c>
       <c r="E28">
-        <v>0.08161098131018839</v>
+        <v>-0.02833339622069785</v>
       </c>
       <c r="F28">
-        <v>0.0872991257482285</v>
+        <v>-0.03302830168474361</v>
       </c>
       <c r="G28">
-        <v>0.02144436630843942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1321358489789154</v>
+      </c>
+      <c r="H28">
+        <v>-0.05172344600567528</v>
+      </c>
+      <c r="I28">
+        <v>0.07359632533047024</v>
+      </c>
+      <c r="J28">
+        <v>0.1949380781314221</v>
+      </c>
+      <c r="K28">
+        <v>0.01521811840292351</v>
+      </c>
+      <c r="L28">
+        <v>-0.02152511953312735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.008131013198432145</v>
+        <v>0.01417957855851704</v>
       </c>
       <c r="C29">
-        <v>0.07326942568374817</v>
+        <v>-0.08144683650405102</v>
       </c>
       <c r="D29">
-        <v>0.03862379450377906</v>
+        <v>0.05412533274570534</v>
       </c>
       <c r="E29">
-        <v>-0.03627170129206894</v>
+        <v>-0.05248000717877128</v>
       </c>
       <c r="F29">
-        <v>-0.005809735164688399</v>
+        <v>0.01314710949110961</v>
       </c>
       <c r="G29">
-        <v>-0.08531909583925772</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1017967554486821</v>
+      </c>
+      <c r="H29">
+        <v>-0.3008564429788427</v>
+      </c>
+      <c r="I29">
+        <v>0.008948703154988163</v>
+      </c>
+      <c r="J29">
+        <v>-0.03501161787393695</v>
+      </c>
+      <c r="K29">
+        <v>-0.1639219883053576</v>
+      </c>
+      <c r="L29">
+        <v>0.2719116000919357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.03011323040170726</v>
+        <v>0.03178062111026262</v>
       </c>
       <c r="C30">
-        <v>0.1777662132264287</v>
+        <v>-0.1453708025366652</v>
       </c>
       <c r="D30">
-        <v>0.05737425667999502</v>
+        <v>0.05661732853638652</v>
       </c>
       <c r="E30">
-        <v>-0.03366100266294855</v>
+        <v>-0.008439440610253318</v>
       </c>
       <c r="F30">
-        <v>-0.05343325420797213</v>
+        <v>-0.06556343869638051</v>
       </c>
       <c r="G30">
-        <v>-0.0003928943532708212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.0108084077933774</v>
+      </c>
+      <c r="H30">
+        <v>-0.03258694628257992</v>
+      </c>
+      <c r="I30">
+        <v>-0.03875080901167428</v>
+      </c>
+      <c r="J30">
+        <v>-0.02341361070360314</v>
+      </c>
+      <c r="K30">
+        <v>0.0835458021898994</v>
+      </c>
+      <c r="L30">
+        <v>-0.03298559670669186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.003745887248131426</v>
+        <v>0.01348517361717013</v>
       </c>
       <c r="C31">
-        <v>0.05720376696820024</v>
+        <v>-0.08048743602931377</v>
       </c>
       <c r="D31">
-        <v>0.03378241103607615</v>
+        <v>0.04084851773207846</v>
       </c>
       <c r="E31">
-        <v>0.01445337745338241</v>
+        <v>-0.001130179743869288</v>
       </c>
       <c r="F31">
-        <v>0.01079450716707237</v>
+        <v>0.0005281270084418375</v>
       </c>
       <c r="G31">
-        <v>-0.0141602389858633</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02849817039204121</v>
+      </c>
+      <c r="H31">
+        <v>-0.03426240546468877</v>
+      </c>
+      <c r="I31">
+        <v>-0.02067717876574889</v>
+      </c>
+      <c r="J31">
+        <v>-0.01115112449749886</v>
+      </c>
+      <c r="K31">
+        <v>-0.04138340316340187</v>
+      </c>
+      <c r="L31">
+        <v>-0.04689800062643908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.01959174331484593</v>
+        <v>0.02176687345797107</v>
       </c>
       <c r="C32">
-        <v>0.08119864465780992</v>
+        <v>-0.05271513227324538</v>
       </c>
       <c r="D32">
-        <v>-0.009500545505936273</v>
+        <v>0.01730207563485591</v>
       </c>
       <c r="E32">
-        <v>-0.1624823039580013</v>
+        <v>-0.09849796821668799</v>
       </c>
       <c r="F32">
-        <v>-0.03341462040742507</v>
+        <v>-0.06807578681145864</v>
       </c>
       <c r="G32">
-        <v>-0.0468781658014914</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05813937113441708</v>
+      </c>
+      <c r="H32">
+        <v>-0.1698493027788732</v>
+      </c>
+      <c r="I32">
+        <v>0.1274637331948916</v>
+      </c>
+      <c r="J32">
+        <v>0.222096605478412</v>
+      </c>
+      <c r="K32">
+        <v>-0.003858187954097837</v>
+      </c>
+      <c r="L32">
+        <v>0.1695234811258472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.01527079937394592</v>
+        <v>0.01774974282195124</v>
       </c>
       <c r="C33">
-        <v>0.09319982680688622</v>
+        <v>-0.1063141086109985</v>
       </c>
       <c r="D33">
-        <v>0.05852468235052916</v>
+        <v>0.04839244366727832</v>
       </c>
       <c r="E33">
-        <v>-0.01377485508802813</v>
+        <v>0.0030302746447158</v>
       </c>
       <c r="F33">
-        <v>-0.002814774948019198</v>
+        <v>-0.0139254555892268</v>
       </c>
       <c r="G33">
-        <v>-0.0257021844760653</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02116155092796436</v>
+      </c>
+      <c r="H33">
+        <v>-0.05686739531588136</v>
+      </c>
+      <c r="I33">
+        <v>-0.02546913029301574</v>
+      </c>
+      <c r="J33">
+        <v>0.02484643494482008</v>
+      </c>
+      <c r="K33">
+        <v>-0.00999369889917677</v>
+      </c>
+      <c r="L33">
+        <v>-0.02795366737238736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.001993506389238319</v>
+        <v>0.01608406719650578</v>
       </c>
       <c r="C34">
-        <v>0.04979135889194879</v>
+        <v>-0.0496678581459667</v>
       </c>
       <c r="D34">
-        <v>0.01995064862636024</v>
+        <v>0.01995744683661769</v>
       </c>
       <c r="E34">
-        <v>-0.003653354662293651</v>
+        <v>-0.001819909122600674</v>
       </c>
       <c r="F34">
-        <v>0.004763943897745033</v>
+        <v>0.01197700969870647</v>
       </c>
       <c r="G34">
-        <v>-0.03376844667953662</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01647555457389358</v>
+      </c>
+      <c r="H34">
+        <v>-0.007725786611762731</v>
+      </c>
+      <c r="I34">
+        <v>-0.02139049671545339</v>
+      </c>
+      <c r="J34">
+        <v>-0.009246240272687013</v>
+      </c>
+      <c r="K34">
+        <v>-0.01112355138178543</v>
+      </c>
+      <c r="L34">
+        <v>-0.04374035046604006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.003269836078234532</v>
+        <v>0.01019420410338957</v>
       </c>
       <c r="C35">
-        <v>0.02299727911045893</v>
+        <v>-0.04307155199974265</v>
       </c>
       <c r="D35">
-        <v>0.0062930097407967</v>
+        <v>0.02156671848695504</v>
       </c>
       <c r="E35">
-        <v>-0.01023397823961711</v>
+        <v>-0.01405352751483848</v>
       </c>
       <c r="F35">
-        <v>-0.005803637105307612</v>
+        <v>-6.46954429988631e-05</v>
       </c>
       <c r="G35">
-        <v>-0.02664584528904748</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.03923805856029996</v>
+      </c>
+      <c r="H35">
+        <v>-0.1543030678850368</v>
+      </c>
+      <c r="I35">
+        <v>-0.01881363002720593</v>
+      </c>
+      <c r="J35">
+        <v>0.00281859572773188</v>
+      </c>
+      <c r="K35">
+        <v>-0.1461444781550583</v>
+      </c>
+      <c r="L35">
+        <v>0.1344143981047525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.005913199399101098</v>
+        <v>0.01652923401115021</v>
       </c>
       <c r="C36">
-        <v>0.05294533769526086</v>
+        <v>-0.04966336801575481</v>
       </c>
       <c r="D36">
-        <v>0.04818124592756724</v>
+        <v>0.04873169773116369</v>
       </c>
       <c r="E36">
-        <v>-0.005762665798267117</v>
+        <v>-0.002743534015976599</v>
       </c>
       <c r="F36">
-        <v>-0.002130022798626117</v>
+        <v>-0.003519505584209533</v>
       </c>
       <c r="G36">
-        <v>-0.01427531011070835</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.004318829924865343</v>
+      </c>
+      <c r="H36">
+        <v>-0.07295280832122043</v>
+      </c>
+      <c r="I36">
+        <v>-0.01714012096142833</v>
+      </c>
+      <c r="J36">
+        <v>-0.008808150256007603</v>
+      </c>
+      <c r="K36">
+        <v>0.03447004825854839</v>
+      </c>
+      <c r="L36">
+        <v>-0.06357478580869541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.0313132857705137</v>
+        <v>0.01320796406090703</v>
       </c>
       <c r="C38">
-        <v>0.05435130002908235</v>
+        <v>-0.06176878315286758</v>
       </c>
       <c r="D38">
-        <v>0.04232204942039124</v>
+        <v>0.04175656923270768</v>
       </c>
       <c r="E38">
-        <v>0.004361703623253496</v>
+        <v>0.02571709807267807</v>
       </c>
       <c r="F38">
-        <v>-0.01409216952241827</v>
+        <v>-0.02313322836652842</v>
       </c>
       <c r="G38">
-        <v>-0.002379301725576806</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.007819401756439037</v>
+      </c>
+      <c r="H38">
+        <v>-0.08674730640666249</v>
+      </c>
+      <c r="I38">
+        <v>0.02500963209738582</v>
+      </c>
+      <c r="J38">
+        <v>0.05573453619564507</v>
+      </c>
+      <c r="K38">
+        <v>-0.04645689118792189</v>
+      </c>
+      <c r="L38">
+        <v>-0.1102720074310661</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.0002132821254521567</v>
+        <v>0.0170339405628651</v>
       </c>
       <c r="C39">
-        <v>0.1287537590376489</v>
+        <v>-0.1273742718253034</v>
       </c>
       <c r="D39">
-        <v>0.03709688155738179</v>
+        <v>0.05447507215007714</v>
       </c>
       <c r="E39">
-        <v>-0.01071652880857618</v>
+        <v>-0.008083620223161656</v>
       </c>
       <c r="F39">
-        <v>-0.0324574937725045</v>
+        <v>0.0007711978395170423</v>
       </c>
       <c r="G39">
-        <v>-0.07032673117277315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04094396987721258</v>
+      </c>
+      <c r="H39">
+        <v>-0.05306701295226642</v>
+      </c>
+      <c r="I39">
+        <v>-0.01182668372534325</v>
+      </c>
+      <c r="J39">
+        <v>-0.07174399901980719</v>
+      </c>
+      <c r="K39">
+        <v>0.0209334545072327</v>
+      </c>
+      <c r="L39">
+        <v>-0.07653278205731666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.009371612739584194</v>
+        <v>0.01342668831327785</v>
       </c>
       <c r="C40">
-        <v>0.02692062261156245</v>
+        <v>-0.05709220564759455</v>
       </c>
       <c r="D40">
-        <v>0.03067644908303824</v>
+        <v>0.03731951874455976</v>
       </c>
       <c r="E40">
-        <v>-0.1306322685275202</v>
+        <v>-0.04532905733334255</v>
       </c>
       <c r="F40">
-        <v>-0.06518801926539265</v>
+        <v>-0.02630029641146263</v>
       </c>
       <c r="G40">
-        <v>-0.06123402622307549</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1470247955403585</v>
+      </c>
+      <c r="H40">
+        <v>-0.03688987488154847</v>
+      </c>
+      <c r="I40">
+        <v>-0.04660020974739306</v>
+      </c>
+      <c r="J40">
+        <v>0.02510927930998997</v>
+      </c>
+      <c r="K40">
+        <v>-0.2724214825027556</v>
+      </c>
+      <c r="L40">
+        <v>0.02748207834762674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.01188831134934383</v>
+        <v>0.02190954023522</v>
       </c>
       <c r="C41">
-        <v>0.0222429704091335</v>
+        <v>-0.04760598710219936</v>
       </c>
       <c r="D41">
-        <v>0.005114483340310391</v>
+        <v>0.01707193257564247</v>
       </c>
       <c r="E41">
-        <v>0.01778277488849409</v>
+        <v>0.0090653847819522</v>
       </c>
       <c r="F41">
-        <v>0.03605512935973841</v>
+        <v>0.02326474949877593</v>
       </c>
       <c r="G41">
-        <v>0.02939402074549685</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01086979834057049</v>
+      </c>
+      <c r="H41">
+        <v>-0.02383444236992988</v>
+      </c>
+      <c r="I41">
+        <v>0.007095515366585956</v>
+      </c>
+      <c r="J41">
+        <v>0.02344895795254436</v>
+      </c>
+      <c r="K41">
+        <v>-0.05528650502721234</v>
+      </c>
+      <c r="L41">
+        <v>-0.01733955374572254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.003520353235510349</v>
+        <v>0.0185032215313593</v>
       </c>
       <c r="C43">
-        <v>0.02219409410697427</v>
+        <v>-0.04391567854166945</v>
       </c>
       <c r="D43">
-        <v>0.0106159205605617</v>
+        <v>0.02984226063342954</v>
       </c>
       <c r="E43">
-        <v>0.008658028576754979</v>
+        <v>0.01353826511404576</v>
       </c>
       <c r="F43">
-        <v>-0.0001460455389644123</v>
+        <v>0.00673867294888521</v>
       </c>
       <c r="G43">
-        <v>0.008522116972096684</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.003690243123265817</v>
+      </c>
+      <c r="H43">
+        <v>-0.04196755357435906</v>
+      </c>
+      <c r="I43">
+        <v>0.003150677054155596</v>
+      </c>
+      <c r="J43">
+        <v>-0.003845830106015137</v>
+      </c>
+      <c r="K43">
+        <v>-0.0433240827530179</v>
+      </c>
+      <c r="L43">
+        <v>-0.0118915465038686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.02388159456265121</v>
+        <v>0.01483710322576447</v>
       </c>
       <c r="C44">
-        <v>0.0964991788187769</v>
+        <v>-0.09811489022126212</v>
       </c>
       <c r="D44">
-        <v>0.02278422503355017</v>
+        <v>0.05632830923340613</v>
       </c>
       <c r="E44">
-        <v>-0.04292234300294446</v>
+        <v>-0.002180350433081857</v>
       </c>
       <c r="F44">
-        <v>-0.06426440968902349</v>
+        <v>-0.0643714188223735</v>
       </c>
       <c r="G44">
-        <v>-0.03281684557435702</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04335900174286829</v>
+      </c>
+      <c r="H44">
+        <v>-0.0530875869172385</v>
+      </c>
+      <c r="I44">
+        <v>-0.01612393692323786</v>
+      </c>
+      <c r="J44">
+        <v>-0.05222634456380016</v>
+      </c>
+      <c r="K44">
+        <v>0.08336093517260194</v>
+      </c>
+      <c r="L44">
+        <v>0.008797103967591202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2410,253 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.005971228430073705</v>
+        <v>0.004887999928667848</v>
       </c>
       <c r="C46">
-        <v>0.06696175528700476</v>
+        <v>-0.0639532012553943</v>
       </c>
       <c r="D46">
-        <v>0.04016167012542918</v>
+        <v>0.03033824464015411</v>
       </c>
       <c r="E46">
-        <v>-0.02804811091300746</v>
+        <v>-0.006929738819925693</v>
       </c>
       <c r="F46">
-        <v>-0.01019964497713173</v>
+        <v>0.01476917876058355</v>
       </c>
       <c r="G46">
-        <v>-0.05100296066785125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0298706541079433</v>
+      </c>
+      <c r="H46">
+        <v>-0.1057215289451641</v>
+      </c>
+      <c r="I46">
+        <v>0.01533777169932988</v>
+      </c>
+      <c r="J46">
+        <v>-0.01719665351975593</v>
+      </c>
+      <c r="K46">
+        <v>-0.07412375670033566</v>
+      </c>
+      <c r="L46">
+        <v>0.04611210948225671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.01051224679093223</v>
+        <v>0.02427482630522846</v>
       </c>
       <c r="C47">
-        <v>0.08301846085130411</v>
+        <v>-0.08287076847256249</v>
       </c>
       <c r="D47">
-        <v>0.03891996617363152</v>
+        <v>0.04470068641096207</v>
       </c>
       <c r="E47">
-        <v>0.01832024167304203</v>
+        <v>-0.003365335300076369</v>
       </c>
       <c r="F47">
-        <v>0.04343271426732102</v>
+        <v>0.02080312939702571</v>
       </c>
       <c r="G47">
-        <v>-0.04985936023249654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.001591380721288106</v>
+      </c>
+      <c r="H47">
+        <v>-0.07228909352551031</v>
+      </c>
+      <c r="I47">
+        <v>0.006267044994671804</v>
+      </c>
+      <c r="J47">
+        <v>0.0207748523687708</v>
+      </c>
+      <c r="K47">
+        <v>-0.04288898325537972</v>
+      </c>
+      <c r="L47">
+        <v>-0.04748838583290718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.01148661229116688</v>
+        <v>0.02196525095305467</v>
       </c>
       <c r="C48">
-        <v>0.05163065208695725</v>
+        <v>-0.05083509979591688</v>
       </c>
       <c r="D48">
-        <v>0.05723684482799614</v>
+        <v>0.05508651207234653</v>
       </c>
       <c r="E48">
-        <v>-0.001270774792229507</v>
+        <v>0.005429882809398014</v>
       </c>
       <c r="F48">
-        <v>-0.006935588032024475</v>
+        <v>0.002716684533719724</v>
       </c>
       <c r="G48">
-        <v>-0.009884904754691715</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.007133831792600648</v>
+      </c>
+      <c r="H48">
+        <v>-0.09421702472779504</v>
+      </c>
+      <c r="I48">
+        <v>-0.04583949601187066</v>
+      </c>
+      <c r="J48">
+        <v>-0.01772359596744175</v>
+      </c>
+      <c r="K48">
+        <v>0.08232205459188612</v>
+      </c>
+      <c r="L48">
+        <v>-0.07528999199961323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007558930716030586</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02650189570161903</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0008545358676796462</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01594840861050361</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03199142533296692</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03396665837039631</v>
+      </c>
+      <c r="H49">
+        <v>0.01871006294461527</v>
+      </c>
+      <c r="I49">
+        <v>-0.06069918982021314</v>
+      </c>
+      <c r="J49">
+        <v>-0.03084245528814295</v>
+      </c>
+      <c r="K49">
+        <v>0.02279326938219834</v>
+      </c>
+      <c r="L49">
+        <v>-0.01013259790016452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.0004020957376507566</v>
+        <v>0.01403404296707051</v>
       </c>
       <c r="C50">
-        <v>0.06474484003035867</v>
+        <v>-0.07814908169326547</v>
       </c>
       <c r="D50">
-        <v>0.02564075849129014</v>
+        <v>0.02916081412851389</v>
       </c>
       <c r="E50">
-        <v>0.0002069047945579006</v>
+        <v>0.0003207135729279508</v>
       </c>
       <c r="F50">
-        <v>-0.006083219786896426</v>
+        <v>-0.005091081623643183</v>
       </c>
       <c r="G50">
-        <v>-0.01177753414495501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.014385349424718</v>
+      </c>
+      <c r="H50">
+        <v>-0.05787455011024715</v>
+      </c>
+      <c r="I50">
+        <v>-0.002841118089863569</v>
+      </c>
+      <c r="J50">
+        <v>0.04258818983291079</v>
+      </c>
+      <c r="K50">
+        <v>-0.03294257977410546</v>
+      </c>
+      <c r="L50">
+        <v>-0.03158396192777312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.002296653907223918</v>
+        <v>-0.006507721296026412</v>
       </c>
       <c r="C51">
-        <v>0.07774112608266392</v>
+        <v>-0.03661370561362062</v>
       </c>
       <c r="D51">
-        <v>0.002161259825875329</v>
+        <v>0.02227457576478223</v>
       </c>
       <c r="E51">
-        <v>-0.05652616630755891</v>
+        <v>-0.02268160623020119</v>
       </c>
       <c r="F51">
-        <v>-0.05954372837037729</v>
+        <v>-0.02538384870320076</v>
       </c>
       <c r="G51">
-        <v>-0.007839745206169034</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02758435651998534</v>
+      </c>
+      <c r="H51">
+        <v>-0.09451595007652763</v>
+      </c>
+      <c r="I51">
+        <v>-0.04300737526846007</v>
+      </c>
+      <c r="J51">
+        <v>0.002354550060889017</v>
+      </c>
+      <c r="K51">
+        <v>0.1094404288415783</v>
+      </c>
+      <c r="L51">
+        <v>0.03155150129022338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2676,177 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.04308478517942305</v>
+        <v>0.0583232406506097</v>
       </c>
       <c r="C53">
-        <v>0.1365945127080139</v>
+        <v>-0.1319150310841188</v>
       </c>
       <c r="D53">
-        <v>0.06146647437070896</v>
+        <v>0.05624744907861525</v>
       </c>
       <c r="E53">
-        <v>0.1303198964098226</v>
+        <v>0.01205482900160828</v>
       </c>
       <c r="F53">
-        <v>0.06992228974418721</v>
+        <v>0.0725632168632652</v>
       </c>
       <c r="G53">
-        <v>0.0224249079049099</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08645342276718393</v>
+      </c>
+      <c r="H53">
+        <v>0.03185811291412659</v>
+      </c>
+      <c r="I53">
+        <v>-0.001975611983827415</v>
+      </c>
+      <c r="J53">
+        <v>0.04126780479489259</v>
+      </c>
+      <c r="K53">
+        <v>-0.0275475672270539</v>
+      </c>
+      <c r="L53">
+        <v>-0.1004475860861912</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.005209732515316748</v>
+        <v>0.01890963774529766</v>
       </c>
       <c r="C54">
-        <v>0.06635456155246687</v>
+        <v>-0.07541113406446348</v>
       </c>
       <c r="D54">
-        <v>0.008034876658531535</v>
+        <v>0.01269706428262225</v>
       </c>
       <c r="E54">
-        <v>0.02410461510325747</v>
+        <v>-0.001662422989216658</v>
       </c>
       <c r="F54">
-        <v>-0.001816403549278725</v>
+        <v>0.02392559999050526</v>
       </c>
       <c r="G54">
-        <v>-0.0130268721024107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.01274012739847809</v>
+      </c>
+      <c r="H54">
+        <v>-0.0508977490908494</v>
+      </c>
+      <c r="I54">
+        <v>-0.02961573914905618</v>
+      </c>
+      <c r="J54">
+        <v>-0.02425166743323515</v>
+      </c>
+      <c r="K54">
+        <v>-0.01027504710654172</v>
+      </c>
+      <c r="L54">
+        <v>0.01123057376193312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.02629992515303869</v>
+        <v>0.03354702779267758</v>
       </c>
       <c r="C55">
-        <v>0.08953749470002305</v>
+        <v>-0.08559985289169217</v>
       </c>
       <c r="D55">
-        <v>0.06640454895998131</v>
+        <v>0.05501417973678924</v>
       </c>
       <c r="E55">
-        <v>0.05631805554602271</v>
+        <v>0.01664604260716138</v>
       </c>
       <c r="F55">
-        <v>0.0501234846288864</v>
+        <v>0.05030097584438736</v>
       </c>
       <c r="G55">
-        <v>-0.01031879406790284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04154429662256604</v>
+      </c>
+      <c r="H55">
+        <v>0.01883954041767283</v>
+      </c>
+      <c r="I55">
+        <v>-0.01141803558418467</v>
+      </c>
+      <c r="J55">
+        <v>-0.007851000580031966</v>
+      </c>
+      <c r="K55">
+        <v>-0.01245458304304895</v>
+      </c>
+      <c r="L55">
+        <v>-0.05308578231095169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.02708589278110685</v>
+        <v>0.04543434933728442</v>
       </c>
       <c r="C56">
-        <v>0.1685186173363626</v>
+        <v>-0.1504250142946813</v>
       </c>
       <c r="D56">
-        <v>0.05515592302733335</v>
+        <v>0.07942356895487893</v>
       </c>
       <c r="E56">
-        <v>0.1171701032563299</v>
+        <v>0.001355815323526467</v>
       </c>
       <c r="F56">
-        <v>0.1098232450290684</v>
+        <v>0.09938570939226093</v>
       </c>
       <c r="G56">
-        <v>0.05527096159459467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1568829451879492</v>
+      </c>
+      <c r="H56">
+        <v>0.05188309863702792</v>
+      </c>
+      <c r="I56">
+        <v>-0.02327959610576959</v>
+      </c>
+      <c r="J56">
+        <v>0.02967004963496309</v>
+      </c>
+      <c r="K56">
+        <v>0.01444398626753453</v>
+      </c>
+      <c r="L56">
+        <v>-0.05823217531518275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2866,481 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.03216031049066905</v>
+        <v>0.02274024780929325</v>
       </c>
       <c r="C58">
-        <v>0.295972447737765</v>
+        <v>-0.185277678612877</v>
       </c>
       <c r="D58">
-        <v>-0.06851736833745153</v>
+        <v>0.03709227182672913</v>
       </c>
       <c r="E58">
-        <v>-0.1859473386850031</v>
+        <v>-0.06776387842316396</v>
       </c>
       <c r="F58">
-        <v>-0.277207443286842</v>
+        <v>-0.3109390481504808</v>
       </c>
       <c r="G58">
-        <v>0.1806864244730432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.05923648589231854</v>
+      </c>
+      <c r="H58">
+        <v>-0.04639753778040385</v>
+      </c>
+      <c r="I58">
+        <v>0.02252760740395917</v>
+      </c>
+      <c r="J58">
+        <v>0.04829969413073337</v>
+      </c>
+      <c r="K58">
+        <v>0.4232671336070512</v>
+      </c>
+      <c r="L58">
+        <v>0.1912441945332002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.2802124333548274</v>
+        <v>0.2881252202033049</v>
       </c>
       <c r="C59">
-        <v>-0.00530231084806425</v>
+        <v>0.04514368481365932</v>
       </c>
       <c r="D59">
-        <v>-0.03412677779671094</v>
+        <v>-0.006060633991211626</v>
       </c>
       <c r="E59">
-        <v>-0.05759779367580393</v>
+        <v>-0.03684724631162919</v>
       </c>
       <c r="F59">
-        <v>0.04305615068865656</v>
+        <v>-0.03582865629276637</v>
       </c>
       <c r="G59">
-        <v>-0.02215580924642599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.00149129476408182</v>
+      </c>
+      <c r="H59">
+        <v>0.02173794572714337</v>
+      </c>
+      <c r="I59">
+        <v>0.01333443035815806</v>
+      </c>
+      <c r="J59">
+        <v>0.02179145510193843</v>
+      </c>
+      <c r="K59">
+        <v>-0.02447073908529322</v>
+      </c>
+      <c r="L59">
+        <v>-0.02653039479176373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.1139303902233818</v>
+        <v>0.1471541244500566</v>
       </c>
       <c r="C60">
-        <v>0.1461189070740087</v>
+        <v>-0.153803487370749</v>
       </c>
       <c r="D60">
-        <v>0.06847687327782635</v>
+        <v>0.04674716049349664</v>
       </c>
       <c r="E60">
-        <v>0.04228304255236711</v>
+        <v>-0.009624756089370924</v>
       </c>
       <c r="F60">
-        <v>0.05337971886523062</v>
+        <v>0.1397414827676772</v>
       </c>
       <c r="G60">
-        <v>-0.3260642696870641</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2589701091494824</v>
+      </c>
+      <c r="H60">
+        <v>0.2262216060164505</v>
+      </c>
+      <c r="I60">
+        <v>-0.003195950418997092</v>
+      </c>
+      <c r="J60">
+        <v>-0.0243018854326322</v>
+      </c>
+      <c r="K60">
+        <v>0.0309399011815836</v>
+      </c>
+      <c r="L60">
+        <v>0.1125654712382318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.00206763153958697</v>
+        <v>0.02013306778954288</v>
       </c>
       <c r="C61">
-        <v>0.07958353439776814</v>
+        <v>-0.09540234291137049</v>
       </c>
       <c r="D61">
-        <v>0.0468487772203407</v>
+        <v>0.05099541764817078</v>
       </c>
       <c r="E61">
-        <v>0.02019017776493782</v>
+        <v>0.001093529019339963</v>
       </c>
       <c r="F61">
-        <v>-0.001015627505762011</v>
+        <v>0.03115631913887182</v>
       </c>
       <c r="G61">
-        <v>-0.06942567162833932</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02166018273017188</v>
+      </c>
+      <c r="H61">
+        <v>-0.0626139582612608</v>
+      </c>
+      <c r="I61">
+        <v>-0.03338054383273311</v>
+      </c>
+      <c r="J61">
+        <v>-0.02388111450334749</v>
+      </c>
+      <c r="K61">
+        <v>-0.02234936433261259</v>
+      </c>
+      <c r="L61">
+        <v>-0.05179402208300384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002080083801516852</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01324616197375816</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003585363254475974</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.0004139922683251462</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01356366936876431</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.0154820405998209</v>
+      </c>
+      <c r="H62">
+        <v>-0.005027125152853093</v>
+      </c>
+      <c r="I62">
+        <v>-0.05855426143204019</v>
+      </c>
+      <c r="J62">
+        <v>0.02319283707951432</v>
+      </c>
+      <c r="K62">
+        <v>-0.01170096828002866</v>
+      </c>
+      <c r="L62">
+        <v>0.05489753846382692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.002141544156455699</v>
+        <v>0.02699918891392205</v>
       </c>
       <c r="C63">
-        <v>0.06327205317426915</v>
+        <v>-0.0677655322570352</v>
       </c>
       <c r="D63">
-        <v>0.03909994251878919</v>
+        <v>0.05927224670269292</v>
       </c>
       <c r="E63">
-        <v>0.02690082059706984</v>
+        <v>0.0003412987879919585</v>
       </c>
       <c r="F63">
-        <v>-0.009870841791995202</v>
+        <v>0.02048440651019375</v>
       </c>
       <c r="G63">
-        <v>-0.02710773635342778</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.002192336575777149</v>
+      </c>
+      <c r="H63">
+        <v>-0.0600076640902331</v>
+      </c>
+      <c r="I63">
+        <v>-0.03785378297879709</v>
+      </c>
+      <c r="J63">
+        <v>-0.00390378613202667</v>
+      </c>
+      <c r="K63">
+        <v>-0.01979832643236347</v>
+      </c>
+      <c r="L63">
+        <v>-0.05692680625840512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.003173205293876062</v>
+        <v>0.01568095057600036</v>
       </c>
       <c r="C64">
-        <v>0.08884010058210555</v>
+        <v>-0.0925711584796408</v>
       </c>
       <c r="D64">
-        <v>0.06432386993133241</v>
+        <v>0.0328288239381934</v>
       </c>
       <c r="E64">
-        <v>-0.01285754288748883</v>
+        <v>0.01615515048652578</v>
       </c>
       <c r="F64">
-        <v>-0.02577090357907555</v>
+        <v>-0.03590031201318988</v>
       </c>
       <c r="G64">
-        <v>-0.04747592523071804</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06808821455449802</v>
+      </c>
+      <c r="H64">
+        <v>-0.0526171153470384</v>
+      </c>
+      <c r="I64">
+        <v>-0.03731336129757874</v>
+      </c>
+      <c r="J64">
+        <v>-0.02664862490135668</v>
+      </c>
+      <c r="K64">
+        <v>-0.02809759654983706</v>
+      </c>
+      <c r="L64">
+        <v>-0.1136825006436838</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.01163792412874644</v>
+        <v>0.02998757415508225</v>
       </c>
       <c r="C65">
-        <v>0.08134969457051301</v>
+        <v>-0.09626318178744393</v>
       </c>
       <c r="D65">
-        <v>0.02401123895281381</v>
+        <v>0.01876723074875579</v>
       </c>
       <c r="E65">
-        <v>-0.03637823689058581</v>
+        <v>0.0204977171581542</v>
       </c>
       <c r="F65">
-        <v>-0.03322590307641826</v>
+        <v>-0.008353586122946871</v>
       </c>
       <c r="G65">
-        <v>-0.03034161888032828</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.1004603729451393</v>
+      </c>
+      <c r="H65">
+        <v>-0.01263907980398876</v>
+      </c>
+      <c r="I65">
+        <v>0.008922901722609403</v>
+      </c>
+      <c r="J65">
+        <v>-0.07843562135527704</v>
+      </c>
+      <c r="K65">
+        <v>0.09747407852339465</v>
+      </c>
+      <c r="L65">
+        <v>-0.03988425653544233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.001845319579118544</v>
+        <v>0.0140502245327374</v>
       </c>
       <c r="C66">
-        <v>0.1714489606134174</v>
+        <v>-0.1664672105724895</v>
       </c>
       <c r="D66">
-        <v>0.0189294117447699</v>
+        <v>0.04499956732058271</v>
       </c>
       <c r="E66">
-        <v>-0.04908439235520817</v>
+        <v>-0.02143757933276606</v>
       </c>
       <c r="F66">
-        <v>-0.02420048672245961</v>
+        <v>-0.004351182726380391</v>
       </c>
       <c r="G66">
-        <v>-0.08980512816123565</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02364152257989882</v>
+      </c>
+      <c r="H66">
+        <v>-0.06535514612535491</v>
+      </c>
+      <c r="I66">
+        <v>-0.02890146872716082</v>
+      </c>
+      <c r="J66">
+        <v>-0.04835452210791736</v>
+      </c>
+      <c r="K66">
+        <v>0.01776707479870279</v>
+      </c>
+      <c r="L66">
+        <v>-0.04750126062317211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.02903847975074083</v>
+        <v>0.02104242145883313</v>
       </c>
       <c r="C67">
-        <v>0.03307162742854458</v>
+        <v>-0.05138763470271888</v>
       </c>
       <c r="D67">
-        <v>0.06285379711232415</v>
+        <v>0.04366508967408137</v>
       </c>
       <c r="E67">
-        <v>0.03585275411996118</v>
+        <v>0.03385672965714454</v>
       </c>
       <c r="F67">
-        <v>-0.0008485528590761461</v>
+        <v>0.01150820450560248</v>
       </c>
       <c r="G67">
-        <v>-0.01549154792325771</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01663429776982042</v>
+      </c>
+      <c r="H67">
+        <v>-0.06386600534153958</v>
+      </c>
+      <c r="I67">
+        <v>0.04276645376664057</v>
+      </c>
+      <c r="J67">
+        <v>0.04301209525155184</v>
+      </c>
+      <c r="K67">
+        <v>-0.0614035970082686</v>
+      </c>
+      <c r="L67">
+        <v>-0.09184899036355432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.2905761916995545</v>
+        <v>0.2948950084502033</v>
       </c>
       <c r="C68">
-        <v>-0.03956747738987559</v>
+        <v>0.07049082865970503</v>
       </c>
       <c r="D68">
-        <v>-0.02881900647772353</v>
+        <v>-0.02607635728604342</v>
       </c>
       <c r="E68">
-        <v>-0.03107000918742533</v>
+        <v>-0.01647073132934836</v>
       </c>
       <c r="F68">
-        <v>-0.006591776801883417</v>
+        <v>-0.03090912547100187</v>
       </c>
       <c r="G68">
-        <v>0.01353525860102199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0202591230373298</v>
+      </c>
+      <c r="H68">
+        <v>-0.02568789124936132</v>
+      </c>
+      <c r="I68">
+        <v>-0.05637666176993347</v>
+      </c>
+      <c r="J68">
+        <v>0.05867567614570464</v>
+      </c>
+      <c r="K68">
+        <v>-0.004392915265516184</v>
+      </c>
+      <c r="L68">
+        <v>-0.008136504884531812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.01281414111133234</v>
+        <v>0.007034341301662105</v>
       </c>
       <c r="C69">
-        <v>0.05227942210146915</v>
+        <v>-0.04905316107524443</v>
       </c>
       <c r="D69">
-        <v>0.0438697553489197</v>
+        <v>0.02326422493935721</v>
       </c>
       <c r="E69">
-        <v>0.01525261919793788</v>
+        <v>-0.001377220721029422</v>
       </c>
       <c r="F69">
-        <v>9.457961129310742e-05</v>
+        <v>0.01116350952399082</v>
       </c>
       <c r="G69">
-        <v>-0.01488043288506657</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02163505862375487</v>
+      </c>
+      <c r="H69">
+        <v>-0.04455841118665255</v>
+      </c>
+      <c r="I69">
+        <v>0.000502017946403081</v>
+      </c>
+      <c r="J69">
+        <v>0.01545014866031696</v>
+      </c>
+      <c r="K69">
+        <v>-0.01140527808188629</v>
+      </c>
+      <c r="L69">
+        <v>-0.03915494108571804</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3360,975 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.2810212603204822</v>
+        <v>0.2767079621455926</v>
       </c>
       <c r="C71">
-        <v>-0.04796035931337147</v>
+        <v>0.07501012712887777</v>
       </c>
       <c r="D71">
-        <v>-0.03452669326087005</v>
+        <v>-0.02520257799614644</v>
       </c>
       <c r="E71">
-        <v>-0.01962624894754016</v>
+        <v>-0.006008893501274129</v>
       </c>
       <c r="F71">
-        <v>-0.02626532146648333</v>
+        <v>-0.06058612512623344</v>
       </c>
       <c r="G71">
-        <v>0.003178693242520908</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02326466529880092</v>
+      </c>
+      <c r="H71">
+        <v>-0.04973345937656051</v>
+      </c>
+      <c r="I71">
+        <v>0.0002633541743279187</v>
+      </c>
+      <c r="J71">
+        <v>0.1279201909502152</v>
+      </c>
+      <c r="K71">
+        <v>0.03111520579272918</v>
+      </c>
+      <c r="L71">
+        <v>-0.04414257595423818</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.03010416784246173</v>
+        <v>0.05458473613278119</v>
       </c>
       <c r="C72">
-        <v>0.1576600665416557</v>
+        <v>-0.1424917481247135</v>
       </c>
       <c r="D72">
-        <v>0.06072147789103495</v>
+        <v>0.04465549436725338</v>
       </c>
       <c r="E72">
-        <v>-0.007416867778583869</v>
+        <v>0.006310563598820873</v>
       </c>
       <c r="F72">
-        <v>-0.1010398191285232</v>
+        <v>0.03142614621996755</v>
       </c>
       <c r="G72">
-        <v>-0.1112107071942629</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02696445680172644</v>
+      </c>
+      <c r="H72">
+        <v>-0.03165492687391754</v>
+      </c>
+      <c r="I72">
+        <v>-0.02833688223268287</v>
+      </c>
+      <c r="J72">
+        <v>-0.111003657273912</v>
+      </c>
+      <c r="K72">
+        <v>0.06025815428316639</v>
+      </c>
+      <c r="L72">
+        <v>-0.039695370251775</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.07499404504556333</v>
+        <v>0.151204954163606</v>
       </c>
       <c r="C73">
-        <v>0.123609472841985</v>
+        <v>-0.195901174936317</v>
       </c>
       <c r="D73">
-        <v>0.1101325277411793</v>
+        <v>0.08241181595153114</v>
       </c>
       <c r="E73">
-        <v>0.123951040570222</v>
+        <v>0.0540051076236884</v>
       </c>
       <c r="F73">
-        <v>0.04529546204013757</v>
+        <v>0.2483300803038828</v>
       </c>
       <c r="G73">
-        <v>-0.462684042099476</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3899802315749656</v>
+      </c>
+      <c r="H73">
+        <v>0.2824889205429372</v>
+      </c>
+      <c r="I73">
+        <v>0.09365280491525187</v>
+      </c>
+      <c r="J73">
+        <v>0.06191373973089841</v>
+      </c>
+      <c r="K73">
+        <v>0.06692063075796228</v>
+      </c>
+      <c r="L73">
+        <v>0.006826420289181861</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.01944429108894426</v>
+        <v>0.04121227737980568</v>
       </c>
       <c r="C74">
-        <v>0.09123008500964534</v>
+        <v>-0.1014474220390128</v>
       </c>
       <c r="D74">
-        <v>0.06891449695541761</v>
+        <v>0.04744191719155641</v>
       </c>
       <c r="E74">
-        <v>0.07476703753262551</v>
+        <v>0.02051585856720515</v>
       </c>
       <c r="F74">
-        <v>0.05499920047009175</v>
+        <v>0.04001070973874028</v>
       </c>
       <c r="G74">
-        <v>0.01470126352086823</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04775936293835016</v>
+      </c>
+      <c r="H74">
+        <v>0.006761020943673511</v>
+      </c>
+      <c r="I74">
+        <v>-0.04737908542192155</v>
+      </c>
+      <c r="J74">
+        <v>0.01228943436734537</v>
+      </c>
+      <c r="K74">
+        <v>0.02109862117686663</v>
+      </c>
+      <c r="L74">
+        <v>-0.06163283422516039</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.06145738359668611</v>
+        <v>0.06492874095558296</v>
       </c>
       <c r="C75">
-        <v>0.1444586434186381</v>
+        <v>-0.166258578458665</v>
       </c>
       <c r="D75">
-        <v>0.08609273604826718</v>
+        <v>0.08318100890903045</v>
       </c>
       <c r="E75">
-        <v>0.1851529900797869</v>
+        <v>0.0899536449245225</v>
       </c>
       <c r="F75">
-        <v>0.09977017711593976</v>
+        <v>0.09592654119880371</v>
       </c>
       <c r="G75">
-        <v>0.137954668586187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2240463204143631</v>
+      </c>
+      <c r="H75">
+        <v>0.03970583162658809</v>
+      </c>
+      <c r="I75">
+        <v>0.003544594645977461</v>
+      </c>
+      <c r="J75">
+        <v>0.1317984460910127</v>
+      </c>
+      <c r="K75">
+        <v>-0.08635854943419789</v>
+      </c>
+      <c r="L75">
+        <v>-0.0739750866471366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.02605144198902954</v>
+        <v>0.04289888210900741</v>
       </c>
       <c r="C76">
-        <v>0.1056432785846681</v>
+        <v>-0.1206612830878903</v>
       </c>
       <c r="D76">
-        <v>0.059411525630887</v>
+        <v>0.07279151508155619</v>
       </c>
       <c r="E76">
-        <v>0.08813305133297115</v>
+        <v>0.02414196454235619</v>
       </c>
       <c r="F76">
-        <v>0.08959609486693321</v>
+        <v>0.08015463536155486</v>
       </c>
       <c r="G76">
-        <v>0.01833866397841882</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.0798457205747683</v>
+      </c>
+      <c r="H76">
+        <v>0.02217156998150137</v>
+      </c>
+      <c r="I76">
+        <v>-0.05983262570894641</v>
+      </c>
+      <c r="J76">
+        <v>0.008465578248333062</v>
+      </c>
+      <c r="K76">
+        <v>-0.03779168424026196</v>
+      </c>
+      <c r="L76">
+        <v>-0.1239563728708304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.07448654502287104</v>
+        <v>0.04984537731670549</v>
       </c>
       <c r="C77">
-        <v>0.280360098224577</v>
+        <v>-0.3870639209353263</v>
       </c>
       <c r="D77">
-        <v>-0.8620740726051723</v>
+        <v>-0.9044149051704414</v>
       </c>
       <c r="E77">
-        <v>0.3123596527692242</v>
+        <v>0.06082467297020479</v>
       </c>
       <c r="F77">
-        <v>0.04217878942994333</v>
+        <v>0.07799310576665383</v>
       </c>
       <c r="G77">
-        <v>-0.06401269126023808</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03524975906299666</v>
+      </c>
+      <c r="H77">
+        <v>-0.05155840137067964</v>
+      </c>
+      <c r="I77">
+        <v>-0.03895843428953006</v>
+      </c>
+      <c r="J77">
+        <v>0.01010856049341223</v>
+      </c>
+      <c r="K77">
+        <v>-0.004705533226795031</v>
+      </c>
+      <c r="L77">
+        <v>0.005500878288939221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.02729035839725685</v>
+        <v>0.03523551027633123</v>
       </c>
       <c r="C78">
-        <v>0.1483611414164901</v>
+        <v>-0.1146525655310271</v>
       </c>
       <c r="D78">
-        <v>0.09316080069367583</v>
+        <v>0.09641953490817708</v>
       </c>
       <c r="E78">
-        <v>-0.07326447207063319</v>
+        <v>-0.04197848846385059</v>
       </c>
       <c r="F78">
-        <v>0.09831855385493624</v>
+        <v>0.01090848226587804</v>
       </c>
       <c r="G78">
-        <v>0.03418316282486079</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1216891312944912</v>
+      </c>
+      <c r="H78">
+        <v>-0.04807207097701321</v>
+      </c>
+      <c r="I78">
+        <v>-0.00845847660539638</v>
+      </c>
+      <c r="J78">
+        <v>-0.07225689394399247</v>
+      </c>
+      <c r="K78">
+        <v>0.4322823438007915</v>
+      </c>
+      <c r="L78">
+        <v>0.05668779628917047</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.03582005794672782</v>
+        <v>0.05721833893625042</v>
       </c>
       <c r="C79">
-        <v>0.1841122350117709</v>
+        <v>-0.1423497911551633</v>
       </c>
       <c r="D79">
-        <v>0.1059278381851021</v>
+        <v>0.06817318558268104</v>
       </c>
       <c r="E79">
-        <v>0.1221600431586354</v>
+        <v>0.01692506743664621</v>
       </c>
       <c r="F79">
-        <v>0.1650747484863419</v>
+        <v>0.06658783738749458</v>
       </c>
       <c r="G79">
-        <v>0.1626468140537551</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2420191298535301</v>
+      </c>
+      <c r="H79">
+        <v>0.007359882876197658</v>
+      </c>
+      <c r="I79">
+        <v>-0.02083249385602623</v>
+      </c>
+      <c r="J79">
+        <v>0.09698084618996407</v>
+      </c>
+      <c r="K79">
+        <v>0.03652003119334323</v>
+      </c>
+      <c r="L79">
+        <v>-0.07975848973736414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.01087738110918543</v>
+        <v>0.02102765005705705</v>
       </c>
       <c r="C80">
-        <v>0.04301592362878314</v>
+        <v>-0.04866643042124992</v>
       </c>
       <c r="D80">
-        <v>0.05034448466896076</v>
+        <v>0.03815823445590757</v>
       </c>
       <c r="E80">
-        <v>-0.01203892454364473</v>
+        <v>-0.05736999449912377</v>
       </c>
       <c r="F80">
-        <v>0.03794320499600247</v>
+        <v>-0.006864241235063222</v>
       </c>
       <c r="G80">
-        <v>0.004025290946055025</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.05890889057037621</v>
+      </c>
+      <c r="H80">
+        <v>0.02337251187677177</v>
+      </c>
+      <c r="I80">
+        <v>0.03189907737558647</v>
+      </c>
+      <c r="J80">
+        <v>0.03071549290229855</v>
+      </c>
+      <c r="K80">
+        <v>-0.07860250579704883</v>
+      </c>
+      <c r="L80">
+        <v>-0.08030765966289516</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.01127257097928333</v>
+        <v>0.01732568196012658</v>
       </c>
       <c r="C81">
-        <v>0.0795728995669789</v>
+        <v>-0.0987511672114353</v>
       </c>
       <c r="D81">
-        <v>0.07861151119405531</v>
+        <v>0.05518112740252698</v>
       </c>
       <c r="E81">
-        <v>0.09088176992849384</v>
+        <v>0.007956301772777837</v>
       </c>
       <c r="F81">
-        <v>0.09795374076692023</v>
+        <v>0.04628693704492562</v>
       </c>
       <c r="G81">
-        <v>0.04486214807011776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1174932797276456</v>
+      </c>
+      <c r="H81">
+        <v>-0.03539553779020418</v>
+      </c>
+      <c r="I81">
+        <v>-0.01697286237977956</v>
+      </c>
+      <c r="J81">
+        <v>0.05930637911515101</v>
+      </c>
+      <c r="K81">
+        <v>-0.03060925534277901</v>
+      </c>
+      <c r="L81">
+        <v>-0.08821314283889758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.02949287499216902</v>
+        <v>0.04622874867471273</v>
       </c>
       <c r="C82">
-        <v>0.08515781663115932</v>
+        <v>-0.1025093306725405</v>
       </c>
       <c r="D82">
-        <v>0.0728945013901947</v>
+        <v>0.0666336537931137</v>
       </c>
       <c r="E82">
-        <v>0.1076072706903999</v>
+        <v>0.01620016394496652</v>
       </c>
       <c r="F82">
-        <v>0.07727442428639855</v>
+        <v>0.07377566180531628</v>
       </c>
       <c r="G82">
-        <v>0.005184844177480933</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09237692722749924</v>
+      </c>
+      <c r="H82">
+        <v>0.001191277080239121</v>
+      </c>
+      <c r="I82">
+        <v>-0.03047074831245545</v>
+      </c>
+      <c r="J82">
+        <v>0.02665386915281572</v>
+      </c>
+      <c r="K82">
+        <v>-0.01685105067125313</v>
+      </c>
+      <c r="L82">
+        <v>-0.1159422311671836</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.004719056996500721</v>
+        <v>-0.0005336146137683547</v>
       </c>
       <c r="C83">
-        <v>0.02509883703013158</v>
+        <v>0.01981561202650774</v>
       </c>
       <c r="D83">
-        <v>-0.1681508598112892</v>
+        <v>-0.06008376524692197</v>
       </c>
       <c r="E83">
-        <v>-0.5527580902242508</v>
+        <v>-0.9310869342371487</v>
       </c>
       <c r="F83">
-        <v>0.7362284521451158</v>
+        <v>0.2219831434676303</v>
       </c>
       <c r="G83">
-        <v>-0.05489881216286253</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.07266391395375303</v>
+      </c>
+      <c r="H83">
+        <v>0.09352238074446327</v>
+      </c>
+      <c r="I83">
+        <v>-0.02548478615476998</v>
+      </c>
+      <c r="J83">
+        <v>-0.07504311924852937</v>
+      </c>
+      <c r="K83">
+        <v>0.01079768302243901</v>
+      </c>
+      <c r="L83">
+        <v>-0.1057530375122126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.003216372201239873</v>
+        <v>-0.0001516857259737792</v>
       </c>
       <c r="C84">
-        <v>0.07242261937548458</v>
+        <v>-0.04639405515507872</v>
       </c>
       <c r="D84">
-        <v>0.03401408342982882</v>
+        <v>0.06117927371746994</v>
       </c>
       <c r="E84">
-        <v>-0.06737517828024459</v>
+        <v>-0.004866661528989218</v>
       </c>
       <c r="F84">
-        <v>-0.1321117562912609</v>
+        <v>-0.09840432291579428</v>
       </c>
       <c r="G84">
-        <v>0.09619972260697869</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.0380180113740541</v>
+      </c>
+      <c r="H84">
+        <v>-0.08401594684947157</v>
+      </c>
+      <c r="I84">
+        <v>-0.08196464554464786</v>
+      </c>
+      <c r="J84">
+        <v>-0.09246099954416263</v>
+      </c>
+      <c r="K84">
+        <v>-0.06236374356294457</v>
+      </c>
+      <c r="L84">
+        <v>-0.155562577050957</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.02088169859333937</v>
+        <v>0.03027193929434961</v>
       </c>
       <c r="C85">
-        <v>0.1341932668494593</v>
+        <v>-0.11758351679918</v>
       </c>
       <c r="D85">
-        <v>0.08612098867504374</v>
+        <v>0.08229079121166361</v>
       </c>
       <c r="E85">
-        <v>0.1258365985163341</v>
+        <v>0.04145051232214762</v>
       </c>
       <c r="F85">
-        <v>0.1478109937914418</v>
+        <v>0.1274539024595435</v>
       </c>
       <c r="G85">
-        <v>0.1012387621001932</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2130723272336466</v>
+      </c>
+      <c r="H85">
+        <v>0.0530910049982432</v>
+      </c>
+      <c r="I85">
+        <v>-0.07480272808225165</v>
+      </c>
+      <c r="J85">
+        <v>0.1012122030760739</v>
+      </c>
+      <c r="K85">
+        <v>-0.05700180502025334</v>
+      </c>
+      <c r="L85">
+        <v>-0.1388326804238101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.01894148512746143</v>
+        <v>0.01550383729367922</v>
       </c>
       <c r="C86">
-        <v>0.06988316306664692</v>
+        <v>-0.08303959450207501</v>
       </c>
       <c r="D86">
-        <v>-0.03438534150126425</v>
+        <v>0.0250850391903514</v>
       </c>
       <c r="E86">
-        <v>-0.01626259427958495</v>
+        <v>-0.02478074723120009</v>
       </c>
       <c r="F86">
-        <v>-0.06383902696352714</v>
+        <v>-0.07947734601521603</v>
       </c>
       <c r="G86">
-        <v>-0.03297467084175668</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05139526864613002</v>
+      </c>
+      <c r="H86">
+        <v>-0.009747289204030639</v>
+      </c>
+      <c r="I86">
+        <v>0.1433608107659531</v>
+      </c>
+      <c r="J86">
+        <v>0.1067744534640316</v>
+      </c>
+      <c r="K86">
+        <v>0.1611008114933202</v>
+      </c>
+      <c r="L86">
+        <v>-0.05666743880621998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.03771186559206555</v>
+        <v>0.02727603652867348</v>
       </c>
       <c r="C87">
-        <v>0.1552869887157028</v>
+        <v>-0.1191007501381191</v>
       </c>
       <c r="D87">
-        <v>0.02114913915889201</v>
+        <v>0.01811682122587369</v>
       </c>
       <c r="E87">
-        <v>-0.09984338837744082</v>
+        <v>-0.01322160070939098</v>
       </c>
       <c r="F87">
-        <v>-0.04886608737283997</v>
+        <v>-0.07089752074773738</v>
       </c>
       <c r="G87">
-        <v>0.04084785612740113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.008217089310346483</v>
+      </c>
+      <c r="H87">
+        <v>-0.03487018604552181</v>
+      </c>
+      <c r="I87">
+        <v>-0.1160705573328125</v>
+      </c>
+      <c r="J87">
+        <v>-0.05502384764018627</v>
+      </c>
+      <c r="K87">
+        <v>0.07554910531916997</v>
+      </c>
+      <c r="L87">
+        <v>0.02351213098664063</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.006828564543948873</v>
+        <v>0.03811792185470349</v>
       </c>
       <c r="C88">
-        <v>0.03889447394209759</v>
+        <v>-0.06280915543838579</v>
       </c>
       <c r="D88">
-        <v>0.04809714288727283</v>
+        <v>0.04261679149226064</v>
       </c>
       <c r="E88">
-        <v>0.05630169300163725</v>
+        <v>0.01439454988554331</v>
       </c>
       <c r="F88">
-        <v>0.01628962283206876</v>
+        <v>0.01987192223161901</v>
       </c>
       <c r="G88">
-        <v>-0.02120601333592999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02399200521688649</v>
+      </c>
+      <c r="H88">
+        <v>-0.006818082672701684</v>
+      </c>
+      <c r="I88">
+        <v>-0.01006824705670976</v>
+      </c>
+      <c r="J88">
+        <v>0.02071683281728713</v>
+      </c>
+      <c r="K88">
+        <v>-0.09058408743022951</v>
+      </c>
+      <c r="L88">
+        <v>-0.1044555105731122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.3862241777500355</v>
+        <v>0.3893351025886161</v>
       </c>
       <c r="C89">
-        <v>-0.09478096151743767</v>
+        <v>0.1181064451955818</v>
       </c>
       <c r="D89">
-        <v>0.110027270492659</v>
+        <v>-0.03231186295741229</v>
       </c>
       <c r="E89">
-        <v>-0.08525030068515115</v>
+        <v>0.02771072060525702</v>
       </c>
       <c r="F89">
-        <v>-0.06444065527944996</v>
+        <v>-0.08109559461065767</v>
       </c>
       <c r="G89">
-        <v>0.1025975291423015</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.05186061175214761</v>
+      </c>
+      <c r="H89">
+        <v>-0.01729133915629656</v>
+      </c>
+      <c r="I89">
+        <v>-0.1646942463049206</v>
+      </c>
+      <c r="J89">
+        <v>-0.7180443977953976</v>
+      </c>
+      <c r="K89">
+        <v>0.003596734248601781</v>
+      </c>
+      <c r="L89">
+        <v>-0.004184778013816221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.3043570609738371</v>
+        <v>0.3145167902335718</v>
       </c>
       <c r="C90">
-        <v>-0.03510343211887258</v>
+        <v>0.0768284929988715</v>
       </c>
       <c r="D90">
-        <v>-0.01587543592964158</v>
+        <v>-0.01789254229092612</v>
       </c>
       <c r="E90">
-        <v>-0.07438536224707465</v>
+        <v>-0.02722426183641595</v>
       </c>
       <c r="F90">
-        <v>0.01453333218033691</v>
+        <v>-0.0324886262033911</v>
       </c>
       <c r="G90">
-        <v>-0.01626289971013646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01175857698279267</v>
+      </c>
+      <c r="H90">
+        <v>-0.01925664426193142</v>
+      </c>
+      <c r="I90">
+        <v>0.01473220377804357</v>
+      </c>
+      <c r="J90">
+        <v>0.08733715620785744</v>
+      </c>
+      <c r="K90">
+        <v>0.007549196392430635</v>
+      </c>
+      <c r="L90">
+        <v>0.0156072367798506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.03450223517957686</v>
+        <v>0.05310377046781253</v>
       </c>
       <c r="C91">
-        <v>0.08402077063000427</v>
+        <v>-0.08351971721481533</v>
       </c>
       <c r="D91">
-        <v>0.04793793209544295</v>
+        <v>0.04381630183992258</v>
       </c>
       <c r="E91">
-        <v>0.06262544046671874</v>
+        <v>-0.01163324901029953</v>
       </c>
       <c r="F91">
-        <v>0.08163842815707358</v>
+        <v>0.06317192423477229</v>
       </c>
       <c r="G91">
-        <v>0.04650032295176816</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.0777515963052568</v>
+      </c>
+      <c r="H91">
+        <v>0.03257517325300097</v>
+      </c>
+      <c r="I91">
+        <v>-0.007519785418275486</v>
+      </c>
+      <c r="J91">
+        <v>-0.0007024450002575053</v>
+      </c>
+      <c r="K91">
+        <v>-0.0511821646599521</v>
+      </c>
+      <c r="L91">
+        <v>-0.03329710341141472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.3842442215596885</v>
+        <v>0.3547166095901589</v>
       </c>
       <c r="C92">
-        <v>-0.08358663090641974</v>
+        <v>0.1214970368669602</v>
       </c>
       <c r="D92">
-        <v>-0.00802090438203696</v>
+        <v>-0.05274961399991258</v>
       </c>
       <c r="E92">
-        <v>0.03309192127437774</v>
+        <v>0.02875567594874064</v>
       </c>
       <c r="F92">
-        <v>-0.1032314613595644</v>
+        <v>-0.06179395998677101</v>
       </c>
       <c r="G92">
-        <v>0.0402049167152924</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01438993812915844</v>
+      </c>
+      <c r="H92">
+        <v>-0.06205379963026582</v>
+      </c>
+      <c r="I92">
+        <v>0.04023296301210603</v>
+      </c>
+      <c r="J92">
+        <v>0.1498873808867876</v>
+      </c>
+      <c r="K92">
+        <v>0.001035263723657607</v>
+      </c>
+      <c r="L92">
+        <v>0.05695824909892941</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.300422052345124</v>
+        <v>0.3103876527409894</v>
       </c>
       <c r="C93">
-        <v>-0.08192777388419989</v>
+        <v>0.1135145301215952</v>
       </c>
       <c r="D93">
-        <v>0.009147649641083529</v>
+        <v>-0.008719815830856124</v>
       </c>
       <c r="E93">
-        <v>-0.05856210119926593</v>
+        <v>-0.008548002597974811</v>
       </c>
       <c r="F93">
-        <v>-0.02617503128106733</v>
+        <v>-0.03761672916072592</v>
       </c>
       <c r="G93">
-        <v>0.02572098357926967</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04393051413040214</v>
+      </c>
+      <c r="H93">
+        <v>-0.02811093646049792</v>
+      </c>
+      <c r="I93">
+        <v>0.0484461765451886</v>
+      </c>
+      <c r="J93">
+        <v>0.09739570596858586</v>
+      </c>
+      <c r="K93">
+        <v>0.009933012612377111</v>
+      </c>
+      <c r="L93">
+        <v>-0.03874741457238765</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.04837446425652372</v>
+        <v>0.07798230774882246</v>
       </c>
       <c r="C94">
-        <v>0.2127494433028545</v>
+        <v>-0.1640648006329994</v>
       </c>
       <c r="D94">
-        <v>0.1552623049552541</v>
+        <v>0.1043122038143994</v>
       </c>
       <c r="E94">
-        <v>0.2602296047978139</v>
+        <v>0.05530826629739542</v>
       </c>
       <c r="F94">
-        <v>0.2565354820536519</v>
+        <v>0.1483685311708494</v>
       </c>
       <c r="G94">
-        <v>0.501702711425389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5296390027722464</v>
+      </c>
+      <c r="H94">
+        <v>0.2365190803893916</v>
+      </c>
+      <c r="I94">
+        <v>0.06284774862361982</v>
+      </c>
+      <c r="J94">
+        <v>-0.1937389508846346</v>
+      </c>
+      <c r="K94">
+        <v>-0.2006449533388922</v>
+      </c>
+      <c r="L94">
+        <v>0.5470980962578823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.037324703434981</v>
+        <v>0.03977625674728616</v>
       </c>
       <c r="C95">
-        <v>0.09433064897369463</v>
+        <v>-0.1282316354237661</v>
       </c>
       <c r="D95">
-        <v>0.03512070439190432</v>
+        <v>0.05878295988653284</v>
       </c>
       <c r="E95">
-        <v>0.0277334738237809</v>
+        <v>0.04132272398829546</v>
       </c>
       <c r="F95">
-        <v>0.07127306651460863</v>
+        <v>0.06485794818283556</v>
       </c>
       <c r="G95">
-        <v>-0.1244613563563945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.0547000780281884</v>
+      </c>
+      <c r="H95">
+        <v>-0.07455712957314536</v>
+      </c>
+      <c r="I95">
+        <v>-0.1247080571217547</v>
+      </c>
+      <c r="J95">
+        <v>-0.1336460553005862</v>
+      </c>
+      <c r="K95">
+        <v>-0.2161826492477237</v>
+      </c>
+      <c r="L95">
+        <v>-0.2163964063753604</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4348,139 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.0002294762091623512</v>
+        <v>0.01298850724332879</v>
       </c>
       <c r="C97">
-        <v>6.404884401208413e-05</v>
+        <v>-0.01808878073557463</v>
       </c>
       <c r="D97">
-        <v>-0.0001334117176498861</v>
+        <v>-0.01090965262488552</v>
       </c>
       <c r="E97">
-        <v>-0.0002767207767478314</v>
+        <v>0.03048814063356988</v>
       </c>
       <c r="F97">
-        <v>-0.0006015460303337555</v>
+        <v>-0.0225798998117266</v>
       </c>
       <c r="G97">
-        <v>0.0001426157659092551</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02727386307267919</v>
+      </c>
+      <c r="H97">
+        <v>-0.04645486431515247</v>
+      </c>
+      <c r="I97">
+        <v>0.1308957166859978</v>
+      </c>
+      <c r="J97">
+        <v>-0.06494540409612701</v>
+      </c>
+      <c r="K97">
+        <v>-0.004238703154197884</v>
+      </c>
+      <c r="L97">
+        <v>-0.03135999623982535</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.08760835729604349</v>
+        <v>0.1310239131079186</v>
       </c>
       <c r="C98">
-        <v>0.1546832616786022</v>
+        <v>-0.160018724961477</v>
       </c>
       <c r="D98">
-        <v>0.1174452990091191</v>
+        <v>0.0899416543225699</v>
       </c>
       <c r="E98">
-        <v>0.06952352493724162</v>
+        <v>0.04444552863551721</v>
       </c>
       <c r="F98">
-        <v>0.02480140425964432</v>
+        <v>0.2235180613184784</v>
       </c>
       <c r="G98">
-        <v>-0.3146168233751316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3357815331995712</v>
+      </c>
+      <c r="H98">
+        <v>0.3150332282796717</v>
+      </c>
+      <c r="I98">
+        <v>0.1117445687854151</v>
+      </c>
+      <c r="J98">
+        <v>0.07214875920231451</v>
+      </c>
+      <c r="K98">
+        <v>0.0913118750525235</v>
+      </c>
+      <c r="L98">
+        <v>0.1929048435381404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.0152630984598412</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04834511022457096</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.007489088058563124</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.03595647417829002</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.04349890290716271</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.07406476129015482</v>
+      </c>
+      <c r="H99">
+        <v>-0.1252962860552122</v>
+      </c>
+      <c r="I99">
+        <v>0.8591950389857349</v>
+      </c>
+      <c r="J99">
+        <v>-0.2686154869000668</v>
+      </c>
+      <c r="K99">
+        <v>0.03991351445079747</v>
+      </c>
+      <c r="L99">
+        <v>-0.1946687071141606</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4500,101 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.008538666967516305</v>
+        <v>0.01434208810294232</v>
       </c>
       <c r="C101">
-        <v>0.07161061928283301</v>
+        <v>-0.080286929954321</v>
       </c>
       <c r="D101">
-        <v>0.03696066191445537</v>
+        <v>0.05228059075291384</v>
       </c>
       <c r="E101">
-        <v>-0.03564457064866829</v>
+        <v>-0.05254933962908731</v>
       </c>
       <c r="F101">
-        <v>-0.006986878210365998</v>
+        <v>0.01279149143114213</v>
       </c>
       <c r="G101">
-        <v>-0.08519720122583921</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1022749755493266</v>
+      </c>
+      <c r="H101">
+        <v>-0.2998367834026556</v>
+      </c>
+      <c r="I101">
+        <v>0.01048854282635951</v>
+      </c>
+      <c r="J101">
+        <v>-0.03452977273136712</v>
+      </c>
+      <c r="K101">
+        <v>-0.1630940770944328</v>
+      </c>
+      <c r="L101">
+        <v>0.2743667000002882</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
-        <v>-0.01006900410136692</v>
+        <v>0.003747428544111109</v>
       </c>
       <c r="C102">
-        <v>0.02728101370750886</v>
+        <v>-0.01036471403079606</v>
       </c>
       <c r="D102">
-        <v>0.007087959180132065</v>
+        <v>0.0008232736030395098</v>
       </c>
       <c r="E102">
-        <v>0.0192135026148562</v>
+        <v>-0.003717550709357528</v>
       </c>
       <c r="F102">
-        <v>0.03086266249864878</v>
+        <v>0.008036471554510162</v>
       </c>
       <c r="G102">
-        <v>-0.003234005930734682</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.005703161678555541</v>
+      </c>
+      <c r="H102">
+        <v>-3.303655758734254e-05</v>
+      </c>
+      <c r="I102">
+        <v>-0.0008698865419071101</v>
+      </c>
+      <c r="J102">
+        <v>-0.01941705581031441</v>
+      </c>
+      <c r="K102">
+        <v>0.005301417882174995</v>
+      </c>
+      <c r="L102">
+        <v>0.03054280929983983</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
